--- a/medicine/Enfance/Vincent_Dutrait/Vincent_Dutrait.xlsx
+++ b/medicine/Enfance/Vincent_Dutrait/Vincent_Dutrait.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincent Dutrait (né le 20 février 1976 à Bordeaux) est un illustrateur français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincent Dutrait intègre en 1997 l'École Émile-Cohl, école privée d’illustration et d’infographie sise à Lyon. Une fois son diplôme obtenu, il travaille comme illustrateur indépendant pour les éditeurs de jeux, les magazines et surtout pour l’édition jeunesse et fantasy. Amoureux de l’Asie, il parcourt la Chine, Taïwan, le Viêt Nam.
 Vincent Dutrait enseigne la bande dessinée et l’illustration à l’École Émile-Cohl depuis 1999, avec une interruption de cinq ans de 2003 à 2008, période pendant laquelle il a vécu à Séoul (Corée du Sud). 
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrage illustré
-Daniel Defoe : Robinson Crusoé, 2004, Magnard
+          <t>Ouvrage illustré</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Daniel Defoe : Robinson Crusoé, 2004, Magnard
 Anne Jonas : Les Chevaliers de la Table Ronde, 2007, Milan jeunesse
 Béatrice Bottet  : Encyclopédie du fantastique et de l'étrange : L'intégrale, 2008 (autres illustrateurs : Christine Adam et Bruno David)
 Fabrice Colin et André-François Ruault : Le grimoire de Merlin : Toute l’histoire du fantastique et du merveilleux, 2007, Deux coqs d’or
@@ -560,10 +579,47 @@
 Sophie Humann : Entre ciel et mer, les défis d'Auguste Piccard, 2010, Gulf Stream Éditeur
 Jean-Pierre Kerloc'h (d’après le roman de Johanna Spyri) : Heidi : Petite fille des montagnes, 2010, collection P'tit Glénat
 Sophie Humann : Louis Pasteur, 2011, Gulf Stream Éditeur
-Christelle Chatel : Les pirates, 2012, Fleurus
-Jeu
-illustrateur principal
-China Moon, 2003, de Bruno Faidutti (Eurogames)
+Christelle Chatel : Les pirates, 2012, Fleurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vincent_Dutrait</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Dutrait</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jeu</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>illustrateur principal</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>China Moon, 2003, de Bruno Faidutti (Eurogames)
 Water Lily, 2010, de Dominique Ehrhard (GameWorks)
 Diplomacy, 2006, de Allan B. Calhammer (Asmodee)
 Tikal II, 2010, de Wolfgang Kramer et Michael Kiesling (GameWorks)
@@ -610,9 +666,47 @@
 Enquêtes À Los Angeles, 2021, de Evan Derrick (La boite de Jeu)
 Oltréé, 2021, de Antoine Bauza et John Grümph (Studio H)
 Heat, 2022, de Asger Harding Granerud et Daniel Skjold Pedersen (Days of wonder)
-Les Tribus du Vent, 2022, de Joachim Thôme (La Boite de Jeu)
-Illustrateur invité
-CardLine Globetrotter, 2013, de Frédéric Henry (Bombyx)
+Les Tribus du Vent, 2022, de Joachim Thôme (La Boite de Jeu)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vincent_Dutrait</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Dutrait</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Jeu</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Illustrateur invité</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CardLine Globetrotter, 2013, de Frédéric Henry (Bombyx)
 Elysium, 2015, de Brett J. Gilbert et Matthew Dunstan (Space Cowboys)
 When I Dream, 2017, de Chris Darsaklis (Repos Production)
 Robinson Crusoé - Aventures Sur L'île Maudite, 2018, de Ignacy Trzewiczek (Edge Entertainment)
